--- a/STUDIO/trunk/org.openl.rules.demo/src/org.openl.rules.demo.examples/Example 2 - Corporate Rating/Main.xlsx
+++ b/STUDIO/trunk/org.openl.rules.demo/src/org.openl.rules.demo.examples/Example 2 - Corporate Rating/Main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" tabRatio="860" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" tabRatio="860" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Algorithm" sheetId="4" r:id="rId1"/>
@@ -509,23 +509,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>est Data</t>
-    </r>
-  </si>
-  <si>
     <t>&gt; corporateFinancialData</t>
   </si>
   <si>
@@ -3708,6 +3691,23 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (DoubleValue riskScore) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>""T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est Data</t>
     </r>
   </si>
 </sst>
@@ -4450,18 +4450,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4474,17 +4464,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4513,12 +4515,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4527,6 +4523,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4546,8 +4548,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -4908,12 +4908,12 @@
     </row>
     <row r="6" spans="2:8" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
-      <c r="C6" s="121" t="s">
-        <v>502</v>
-      </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
+      <c r="C6" s="133" t="s">
+        <v>501</v>
+      </c>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -4926,12 +4926,12 @@
     </row>
     <row r="8" spans="2:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B8" s="12"/>
-      <c r="C8" s="124" t="s">
-        <v>441</v>
-      </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
+      <c r="C8" s="129" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="2:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4942,18 +4942,18 @@
       <c r="D9" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="125" t="s">
-        <v>495</v>
-      </c>
-      <c r="F9" s="125"/>
+      <c r="E9" s="123" t="s">
+        <v>494</v>
+      </c>
+      <c r="F9" s="123"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="126"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="45" t="s">
         <v>65</v>
       </c>
@@ -4964,126 +4964,126 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
-      <c r="C11" s="125" t="s">
-        <v>380</v>
-      </c>
-      <c r="D11" s="125"/>
+      <c r="C11" s="123" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" s="123"/>
       <c r="E11" s="3"/>
       <c r="F11" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="108" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
-      <c r="C12" s="123" t="s">
-        <v>379</v>
-      </c>
-      <c r="D12" s="123"/>
+      <c r="C12" s="132" t="s">
+        <v>378</v>
+      </c>
+      <c r="D12" s="132"/>
       <c r="E12" s="115"/>
       <c r="F12" s="47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
-      <c r="C13" s="123" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="123"/>
+      <c r="C13" s="132" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="132"/>
       <c r="E13" s="115" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
-      <c r="C14" s="123" t="s">
-        <v>315</v>
-      </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="122" t="s">
-        <v>489</v>
+      <c r="C14" s="132" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="132"/>
+      <c r="E14" s="134" t="s">
+        <v>488</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
-      <c r="C15" s="123" t="s">
-        <v>351</v>
-      </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="132" t="s">
+        <v>350</v>
+      </c>
+      <c r="D15" s="132"/>
+      <c r="E15" s="134"/>
       <c r="F15" s="47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
-      <c r="C16" s="123" t="s">
-        <v>375</v>
-      </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="122"/>
+      <c r="C16" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="D16" s="132"/>
+      <c r="E16" s="134"/>
       <c r="F16" s="47" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="132" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" s="132"/>
+      <c r="E17" s="75" t="s">
+        <v>489</v>
+      </c>
+      <c r="F17" s="47" t="s">
         <v>417</v>
-      </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="75" t="s">
-        <v>490</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>418</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="108" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
-      <c r="C18" s="128" t="s">
-        <v>393</v>
-      </c>
-      <c r="D18" s="128"/>
+      <c r="C18" s="126" t="s">
+        <v>392</v>
+      </c>
+      <c r="D18" s="126"/>
       <c r="E18" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F18" s="74" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="108" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
-      <c r="C19" s="132" t="s">
-        <v>391</v>
-      </c>
-      <c r="D19" s="132"/>
+      <c r="C19" s="128" t="s">
+        <v>390</v>
+      </c>
+      <c r="D19" s="128"/>
       <c r="E19" s="107"/>
       <c r="F19" s="59" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G19" s="12"/>
     </row>
@@ -5105,15 +5105,15 @@
     </row>
     <row r="22" spans="2:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
-      <c r="C22" s="124" t="s">
-        <v>442</v>
-      </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
+      <c r="C22" s="129" t="s">
+        <v>441</v>
+      </c>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
       <c r="G22" s="12"/>
       <c r="H22" s="108" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5124,18 +5124,18 @@
       <c r="D23" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="125" t="s">
-        <v>496</v>
-      </c>
-      <c r="F23" s="125"/>
+      <c r="E23" s="123" t="s">
+        <v>495</v>
+      </c>
+      <c r="F23" s="123"/>
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="12"/>
-      <c r="C24" s="126" t="s">
+      <c r="C24" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="126"/>
+      <c r="D24" s="124"/>
       <c r="E24" s="2" t="s">
         <v>65</v>
       </c>
@@ -5146,309 +5146,309 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="127"/>
+      <c r="D25" s="125"/>
       <c r="E25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="125" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="125"/>
+      <c r="E26" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="127"/>
-      <c r="E26" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="F26" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12"/>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="125" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="125"/>
+      <c r="E27" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="47" t="s">
         <v>186</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>187</v>
       </c>
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
-      <c r="C28" s="130" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" s="130"/>
+      <c r="C28" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="127"/>
       <c r="E28" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F28" s="59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G28" s="12"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
-      <c r="C29" s="127" t="s">
+      <c r="C29" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="127"/>
+      <c r="D29" s="125"/>
       <c r="E29" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="125" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="125"/>
+      <c r="E30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="47" t="s">
         <v>126</v>
-      </c>
-      <c r="D30" s="127"/>
-      <c r="E30" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>127</v>
       </c>
       <c r="G30" s="12"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
-      <c r="C31" s="127" t="s">
+      <c r="C31" s="125" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="125"/>
+      <c r="E31" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="47" t="s">
         <v>190</v>
-      </c>
-      <c r="D31" s="127"/>
-      <c r="E31" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>191</v>
       </c>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
-      <c r="C32" s="130" t="s">
-        <v>192</v>
-      </c>
-      <c r="D32" s="130"/>
+      <c r="C32" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="127"/>
       <c r="E32" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F32" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G32" s="12"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="12"/>
-      <c r="C33" s="127" t="s">
+      <c r="C33" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="127"/>
+      <c r="D33" s="125"/>
       <c r="E33" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G33" s="12"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="12"/>
-      <c r="C34" s="127" t="s">
+      <c r="C34" s="125" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="125"/>
+      <c r="E34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="47" t="s">
         <v>135</v>
-      </c>
-      <c r="D34" s="127"/>
-      <c r="E34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="47" t="s">
-        <v>136</v>
       </c>
       <c r="G34" s="12"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="12"/>
-      <c r="C35" s="127" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="127"/>
+      <c r="C35" s="125" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="125"/>
       <c r="E35" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G35" s="12"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="12"/>
-      <c r="C36" s="130" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="130"/>
+      <c r="C36" s="127" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="127"/>
       <c r="E36" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F36" s="59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G36" s="12"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="12"/>
-      <c r="C37" s="127" t="s">
+      <c r="C37" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="127"/>
+      <c r="D37" s="125"/>
       <c r="E37" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G37" s="12"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="12"/>
-      <c r="C38" s="127" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" s="127"/>
+      <c r="C38" s="125" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="125"/>
       <c r="E38" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G38" s="12"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
-      <c r="C39" s="127" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="127"/>
+      <c r="C39" s="125" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="125"/>
       <c r="E39" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G39" s="12"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="12"/>
-      <c r="C40" s="130" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="130"/>
+      <c r="C40" s="127" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="127"/>
       <c r="E40" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F40" s="59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G40" s="12"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="12"/>
-      <c r="C41" s="127" t="s">
+      <c r="C41" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="127"/>
+      <c r="D41" s="125"/>
       <c r="E41" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G41" s="12"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="12"/>
-      <c r="C42" s="127" t="s">
+      <c r="C42" s="125" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="125"/>
+      <c r="E42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="47" t="s">
         <v>144</v>
-      </c>
-      <c r="D42" s="127"/>
-      <c r="E42" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="47" t="s">
-        <v>145</v>
       </c>
       <c r="G42" s="12"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="12"/>
-      <c r="C43" s="127" t="s">
-        <v>203</v>
-      </c>
-      <c r="D43" s="127"/>
+      <c r="C43" s="125" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="125"/>
       <c r="E43" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G43" s="12"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="12"/>
-      <c r="C44" s="130" t="s">
-        <v>204</v>
-      </c>
-      <c r="D44" s="130"/>
+      <c r="C44" s="127" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="127"/>
       <c r="E44" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F44" s="59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G44" s="12"/>
     </row>
     <row r="45" spans="2:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="12"/>
-      <c r="C45" s="127" t="s">
+      <c r="C45" s="125" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="125"/>
+      <c r="E45" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="127"/>
-      <c r="E45" s="67" t="s">
+      <c r="F45" s="68" t="s">
         <v>208</v>
-      </c>
-      <c r="F45" s="68" t="s">
-        <v>209</v>
       </c>
       <c r="G45" s="12"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="12"/>
-      <c r="C46" s="128" t="s">
+      <c r="C46" s="126" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="126"/>
+      <c r="E46" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="D46" s="128"/>
-      <c r="E46" s="73" t="s">
-        <v>211</v>
-      </c>
       <c r="F46" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G46" s="12"/>
     </row>
@@ -5470,15 +5470,15 @@
     </row>
     <row r="49" spans="2:9" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B49" s="12"/>
-      <c r="C49" s="124" t="s">
-        <v>443</v>
-      </c>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
+      <c r="C49" s="129" t="s">
+        <v>442</v>
+      </c>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
       <c r="G49" s="12"/>
       <c r="H49" s="108" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5489,18 +5489,18 @@
       <c r="D50" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="125" t="s">
-        <v>494</v>
-      </c>
-      <c r="F50" s="125"/>
+      <c r="E50" s="123" t="s">
+        <v>493</v>
+      </c>
+      <c r="F50" s="123"/>
       <c r="G50" s="12"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12"/>
-      <c r="C51" s="126" t="s">
+      <c r="C51" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="126"/>
+      <c r="D51" s="124"/>
       <c r="E51" s="45" t="s">
         <v>65</v>
       </c>
@@ -5511,183 +5511,183 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12"/>
-      <c r="C52" s="125" t="s">
-        <v>281</v>
-      </c>
-      <c r="D52" s="125"/>
+      <c r="C52" s="123" t="s">
+        <v>280</v>
+      </c>
+      <c r="D52" s="123"/>
       <c r="E52" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F52" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G52" s="12"/>
     </row>
     <row r="53" spans="2:9" ht="27.75" x14ac:dyDescent="0.3">
       <c r="B53" s="12"/>
-      <c r="C53" s="127" t="s">
-        <v>282</v>
-      </c>
-      <c r="D53" s="127"/>
+      <c r="C53" s="125" t="s">
+        <v>281</v>
+      </c>
+      <c r="D53" s="125"/>
       <c r="E53" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G53" s="12"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="12"/>
-      <c r="C54" s="130" t="s">
-        <v>286</v>
-      </c>
-      <c r="D54" s="130"/>
+      <c r="C54" s="127" t="s">
+        <v>285</v>
+      </c>
+      <c r="D54" s="127"/>
       <c r="E54" s="58" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F54" s="59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G54" s="12"/>
       <c r="I54" s="99"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="12"/>
-      <c r="C55" s="127" t="s">
-        <v>283</v>
-      </c>
-      <c r="D55" s="127"/>
+      <c r="C55" s="125" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" s="125"/>
       <c r="E55" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G55" s="12"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12"/>
-      <c r="C56" s="130" t="s">
-        <v>287</v>
-      </c>
-      <c r="D56" s="130"/>
+      <c r="C56" s="127" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" s="127"/>
       <c r="E56" s="58" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F56" s="59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G56" s="12"/>
       <c r="I56" s="99"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="12"/>
-      <c r="C57" s="127" t="s">
-        <v>284</v>
-      </c>
-      <c r="D57" s="127"/>
+      <c r="C57" s="125" t="s">
+        <v>283</v>
+      </c>
+      <c r="D57" s="125"/>
       <c r="E57" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G57" s="12"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12"/>
-      <c r="C58" s="130" t="s">
-        <v>288</v>
-      </c>
-      <c r="D58" s="130"/>
+      <c r="C58" s="127" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="127"/>
       <c r="E58" s="58" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F58" s="59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G58" s="12"/>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
       <c r="C59" s="131" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D59" s="131"/>
       <c r="E59" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F59" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G59" s="12"/>
     </row>
     <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="12"/>
-      <c r="C60" s="127" t="s">
-        <v>285</v>
-      </c>
-      <c r="D60" s="127"/>
+      <c r="C60" s="125" t="s">
+        <v>284</v>
+      </c>
+      <c r="D60" s="125"/>
       <c r="E60" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G60" s="12"/>
     </row>
     <row r="61" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="12"/>
-      <c r="C61" s="130" t="s">
-        <v>299</v>
-      </c>
-      <c r="D61" s="130"/>
+      <c r="C61" s="127" t="s">
+        <v>298</v>
+      </c>
+      <c r="D61" s="127"/>
       <c r="E61" s="58" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F61" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G61" s="12"/>
     </row>
     <row r="62" spans="2:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="12"/>
-      <c r="C62" s="127" t="s">
-        <v>293</v>
-      </c>
-      <c r="D62" s="127"/>
+      <c r="C62" s="125" t="s">
+        <v>292</v>
+      </c>
+      <c r="D62" s="125"/>
       <c r="E62" s="116" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F62" s="68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G62" s="12"/>
     </row>
     <row r="63" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="12"/>
-      <c r="C63" s="128" t="s">
-        <v>315</v>
-      </c>
-      <c r="D63" s="128"/>
+      <c r="C63" s="126" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" s="126"/>
       <c r="E63" s="73" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F63" s="74" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G63" s="12"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="12"/>
-      <c r="C64" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="D64" s="129"/>
+      <c r="C64" s="130" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" s="130"/>
       <c r="E64" s="69"/>
       <c r="F64" s="70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G64" s="12"/>
     </row>
@@ -5709,15 +5709,15 @@
     </row>
     <row r="67" spans="2:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B67" s="12"/>
-      <c r="C67" s="124" t="s">
-        <v>444</v>
-      </c>
-      <c r="D67" s="124"/>
-      <c r="E67" s="124"/>
-      <c r="F67" s="124"/>
+      <c r="C67" s="129" t="s">
+        <v>443</v>
+      </c>
+      <c r="D67" s="129"/>
+      <c r="E67" s="129"/>
+      <c r="F67" s="129"/>
       <c r="G67" s="12"/>
       <c r="H67" s="108" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -5728,18 +5728,18 @@
       <c r="D68" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="125" t="s">
-        <v>497</v>
-      </c>
-      <c r="F68" s="125"/>
+      <c r="E68" s="123" t="s">
+        <v>496</v>
+      </c>
+      <c r="F68" s="123"/>
       <c r="G68" s="12"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="12"/>
-      <c r="C69" s="126" t="s">
+      <c r="C69" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="126"/>
+      <c r="D69" s="124"/>
       <c r="E69" s="45" t="s">
         <v>65</v>
       </c>
@@ -5750,167 +5750,167 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="12"/>
-      <c r="C70" s="125" t="s">
-        <v>339</v>
-      </c>
-      <c r="D70" s="125"/>
+      <c r="C70" s="123" t="s">
+        <v>338</v>
+      </c>
+      <c r="D70" s="123"/>
       <c r="E70" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F70" s="47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G70" s="12"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="12"/>
-      <c r="C71" s="130" t="s">
-        <v>340</v>
-      </c>
-      <c r="D71" s="130"/>
+      <c r="C71" s="127" t="s">
+        <v>339</v>
+      </c>
+      <c r="D71" s="127"/>
       <c r="E71" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F71" s="59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G71" s="12"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="12"/>
-      <c r="C72" s="125" t="s">
-        <v>337</v>
-      </c>
-      <c r="D72" s="125"/>
+      <c r="C72" s="123" t="s">
+        <v>336</v>
+      </c>
+      <c r="D72" s="123"/>
       <c r="E72" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F72" s="47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G72" s="12"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="12"/>
-      <c r="C73" s="130" t="s">
-        <v>338</v>
-      </c>
-      <c r="D73" s="130"/>
+      <c r="C73" s="127" t="s">
+        <v>337</v>
+      </c>
+      <c r="D73" s="127"/>
       <c r="E73" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F73" s="59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G73" s="12"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="12"/>
-      <c r="C74" s="127" t="s">
-        <v>344</v>
-      </c>
-      <c r="D74" s="127"/>
+      <c r="C74" s="125" t="s">
+        <v>343</v>
+      </c>
+      <c r="D74" s="125"/>
       <c r="E74" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F74" s="47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G74" s="12"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="12"/>
-      <c r="C75" s="130" t="s">
-        <v>345</v>
-      </c>
-      <c r="D75" s="130"/>
+      <c r="C75" s="127" t="s">
+        <v>344</v>
+      </c>
+      <c r="D75" s="127"/>
       <c r="E75" s="58" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F75" s="59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G75" s="12"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="12"/>
       <c r="C76" s="131" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D76" s="131"/>
       <c r="E76" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F76" s="47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G76" s="12"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="12"/>
-      <c r="C77" s="127" t="s">
+      <c r="C77" s="125" t="s">
+        <v>348</v>
+      </c>
+      <c r="D77" s="125"/>
+      <c r="E77" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="F77" s="47" t="s">
         <v>349</v>
-      </c>
-      <c r="D77" s="127"/>
-      <c r="E77" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F77" s="47" t="s">
-        <v>350</v>
       </c>
       <c r="G77" s="12"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="12"/>
-      <c r="C78" s="130" t="s">
-        <v>299</v>
-      </c>
-      <c r="D78" s="130"/>
+      <c r="C78" s="127" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" s="127"/>
       <c r="E78" s="58" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F78" s="59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G78" s="12"/>
     </row>
     <row r="79" spans="2:8" ht="55.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="12"/>
-      <c r="C79" s="127" t="s">
-        <v>293</v>
-      </c>
-      <c r="D79" s="127"/>
+      <c r="C79" s="125" t="s">
+        <v>292</v>
+      </c>
+      <c r="D79" s="125"/>
       <c r="E79" s="116" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F79" s="68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G79" s="12"/>
     </row>
     <row r="80" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="12"/>
-      <c r="C80" s="128" t="s">
-        <v>351</v>
-      </c>
-      <c r="D80" s="128"/>
+      <c r="C80" s="126" t="s">
+        <v>350</v>
+      </c>
+      <c r="D80" s="126"/>
       <c r="E80" s="73" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F80" s="74" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G80" s="12"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="12"/>
-      <c r="C81" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="D81" s="129"/>
+      <c r="C81" s="130" t="s">
+        <v>302</v>
+      </c>
+      <c r="D81" s="130"/>
       <c r="E81" s="69"/>
       <c r="F81" s="70" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G81" s="12"/>
     </row>
@@ -5932,15 +5932,15 @@
     </row>
     <row r="84" spans="2:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B84" s="12"/>
-      <c r="C84" s="124" t="s">
-        <v>445</v>
-      </c>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
+      <c r="C84" s="129" t="s">
+        <v>444</v>
+      </c>
+      <c r="D84" s="129"/>
+      <c r="E84" s="129"/>
+      <c r="F84" s="129"/>
       <c r="G84" s="12"/>
       <c r="H84" s="108" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5951,18 +5951,18 @@
       <c r="D85" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E85" s="125" t="s">
-        <v>503</v>
-      </c>
-      <c r="F85" s="125"/>
+      <c r="E85" s="123" t="s">
+        <v>502</v>
+      </c>
+      <c r="F85" s="123"/>
       <c r="G85" s="12"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="12"/>
-      <c r="C86" s="126" t="s">
+      <c r="C86" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D86" s="126"/>
+      <c r="D86" s="124"/>
       <c r="E86" s="45" t="s">
         <v>65</v>
       </c>
@@ -5973,125 +5973,125 @@
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="12"/>
-      <c r="C87" s="125" t="s">
+      <c r="C87" s="123" t="s">
+        <v>364</v>
+      </c>
+      <c r="D87" s="123"/>
+      <c r="E87" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F87" s="47" t="s">
         <v>365</v>
-      </c>
-      <c r="D87" s="125"/>
-      <c r="E87" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="F87" s="47" t="s">
-        <v>366</v>
       </c>
       <c r="G87" s="12"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="12"/>
-      <c r="C88" s="130" t="s">
-        <v>377</v>
-      </c>
-      <c r="D88" s="130"/>
+      <c r="C88" s="127" t="s">
+        <v>376</v>
+      </c>
+      <c r="D88" s="127"/>
       <c r="E88" s="58" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F88" s="59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G88" s="12"/>
     </row>
     <row r="89" spans="2:8" ht="27.75" x14ac:dyDescent="0.3">
       <c r="B89" s="12"/>
-      <c r="C89" s="125" t="s">
-        <v>367</v>
-      </c>
-      <c r="D89" s="125"/>
+      <c r="C89" s="123" t="s">
+        <v>366</v>
+      </c>
+      <c r="D89" s="123"/>
       <c r="E89" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F89" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G89" s="12"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="12"/>
-      <c r="C90" s="130" t="s">
-        <v>368</v>
-      </c>
-      <c r="D90" s="130"/>
+      <c r="C90" s="127" t="s">
+        <v>367</v>
+      </c>
+      <c r="D90" s="127"/>
       <c r="E90" s="58" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F90" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G90" s="12"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="12"/>
-      <c r="C91" s="127" t="s">
-        <v>370</v>
-      </c>
-      <c r="D91" s="127"/>
+      <c r="C91" s="125" t="s">
+        <v>369</v>
+      </c>
+      <c r="D91" s="125"/>
       <c r="E91" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F91" s="47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G91" s="12"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="12"/>
-      <c r="C92" s="130" t="s">
-        <v>371</v>
-      </c>
-      <c r="D92" s="130"/>
+      <c r="C92" s="127" t="s">
+        <v>370</v>
+      </c>
+      <c r="D92" s="127"/>
       <c r="E92" s="58" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F92" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G92" s="12"/>
     </row>
     <row r="93" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B93" s="12"/>
-      <c r="C93" s="127" t="s">
-        <v>293</v>
-      </c>
-      <c r="D93" s="127"/>
+      <c r="C93" s="125" t="s">
+        <v>292</v>
+      </c>
+      <c r="D93" s="125"/>
       <c r="E93" s="116" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F93" s="68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G93" s="12"/>
     </row>
     <row r="94" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B94" s="12"/>
-      <c r="C94" s="128" t="s">
-        <v>375</v>
-      </c>
-      <c r="D94" s="128"/>
+      <c r="C94" s="126" t="s">
+        <v>374</v>
+      </c>
+      <c r="D94" s="126"/>
       <c r="E94" s="73" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F94" s="74" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G94" s="12"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="12"/>
-      <c r="C95" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="D95" s="129"/>
+      <c r="C95" s="130" t="s">
+        <v>302</v>
+      </c>
+      <c r="D95" s="130"/>
       <c r="E95" s="69"/>
       <c r="F95" s="70" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G95" s="12"/>
     </row>
@@ -6105,20 +6105,58 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="E50:F50"/>
@@ -6135,58 +6173,20 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H11" location="'Set NonZero Values'!A1" display="'Set NonZero Values'!A1"/>
@@ -6219,7 +6219,7 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G1" s="108" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -6237,10 +6237,10 @@
     </row>
     <row r="6" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="12"/>
-      <c r="D6" s="139" t="s">
-        <v>505</v>
-      </c>
-      <c r="E6" s="140"/>
+      <c r="D6" s="141" t="s">
+        <v>504</v>
+      </c>
+      <c r="E6" s="142"/>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -6251,26 +6251,26 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C8" s="12"/>
-      <c r="D8" s="133" t="s">
-        <v>421</v>
-      </c>
-      <c r="E8" s="134"/>
+      <c r="D8" s="135" t="s">
+        <v>420</v>
+      </c>
+      <c r="E8" s="136"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C9" s="12"/>
       <c r="D9" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C10" s="12"/>
       <c r="D10" s="57" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="12"/>
@@ -6286,40 +6286,40 @@
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C12" s="12"/>
       <c r="D12" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" s="52" t="s">
         <v>305</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>306</v>
       </c>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C13" s="12"/>
       <c r="D13" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E13" s="105" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C14" s="12"/>
       <c r="D14" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E14" s="105" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C15" s="12"/>
       <c r="D15" s="61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E15" s="106" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F15" s="12"/>
     </row>
@@ -6337,10 +6337,10 @@
     </row>
     <row r="18" spans="3:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18" s="12"/>
-      <c r="D18" s="133" t="s">
-        <v>387</v>
-      </c>
-      <c r="E18" s="134"/>
+      <c r="D18" s="135" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" s="136"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
@@ -6359,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="111" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F20" s="12"/>
     </row>
@@ -6369,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="114" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F21" s="12"/>
     </row>
@@ -6379,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="114" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F22" s="12"/>
     </row>
@@ -6389,7 +6389,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="111" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F23" s="12"/>
     </row>
@@ -6446,11 +6446,11 @@
     </row>
     <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
       <c r="F6" s="17"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -6481,7 +6481,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E9" s="118" t="s">
         <v>25</v>
@@ -6552,11 +6552,11 @@
     </row>
     <row r="16" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -6646,7 +6646,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E23" s="118">
         <v>1E-4</v>
@@ -6672,7 +6672,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E25" s="118">
         <v>0</v>
@@ -6685,7 +6685,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E26" s="120">
         <v>0</v>
@@ -6708,11 +6708,11 @@
     </row>
     <row r="29" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
@@ -6748,7 +6748,7 @@
         <v>45</v>
       </c>
       <c r="E32" s="118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F32" s="17"/>
     </row>
@@ -6758,14 +6758,14 @@
         <v>9</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E33" s="118" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
@@ -6774,14 +6774,14 @@
         <v>9</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E34" s="118" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="96" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
@@ -6806,7 +6806,7 @@
         <v>51</v>
       </c>
       <c r="E36" s="119" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F36" s="17"/>
     </row>
@@ -6819,7 +6819,7 @@
         <v>46</v>
       </c>
       <c r="E37" s="118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F37" s="17"/>
     </row>
@@ -6832,7 +6832,7 @@
         <v>67</v>
       </c>
       <c r="E38" s="118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F38" s="17"/>
     </row>
@@ -6936,7 +6936,7 @@
         <v>59</v>
       </c>
       <c r="E46" s="119" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F46" s="17"/>
     </row>
@@ -6949,7 +6949,7 @@
         <v>60</v>
       </c>
       <c r="E47" s="119" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F47" s="17"/>
     </row>
@@ -7100,7 +7100,7 @@
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
       <c r="C15" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="17"/>
     </row>
@@ -7173,7 +7173,7 @@
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="C26" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="17"/>
     </row>
@@ -7207,7 +7207,7 @@
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" t="s">
@@ -7241,42 +7241,42 @@
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="17"/>
       <c r="C36" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D36" s="17"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
       <c r="C37" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="17"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="17"/>
       <c r="C38" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D38" s="17"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="17"/>
       <c r="C39" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" s="17"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="17"/>
       <c r="C40" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D40" s="17"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="17"/>
       <c r="C41" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" s="17"/>
     </row>
@@ -7298,8 +7298,8 @@
   </sheetPr>
   <dimension ref="B3:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -7312,12 +7312,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="154" t="s">
-        <v>95</v>
+      <c r="B3" s="122" t="s">
+        <v>512</v>
       </c>
       <c r="C3" s="22"/>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -7331,12 +7331,12 @@
     </row>
     <row r="6" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
-      <c r="C6" s="152" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
+      <c r="C6" s="154" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
       <c r="G6" s="28"/>
       <c r="H6" s="48"/>
       <c r="I6" s="48"/>
@@ -7348,10 +7348,10 @@
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G7" s="28"/>
     </row>
@@ -7362,17 +7362,17 @@
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
       <c r="C9" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="42" t="s">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="35">
         <v>1500</v>
@@ -7417,10 +7417,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="35">
         <v>2010</v>
@@ -7433,10 +7433,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="36">
         <v>2010</v>
@@ -7462,21 +7462,21 @@
     <row r="16" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="147" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
+      <c r="D16" s="149" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="37">
         <v>2010</v>
@@ -7490,10 +7490,10 @@
         <v>6</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="28"/>
     </row>
@@ -7504,7 +7504,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F19" s="35">
         <v>3323037</v>
@@ -7518,7 +7518,7 @@
         <v>42</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F20" s="35">
         <v>7985183</v>
@@ -7532,7 +7532,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F21" s="35">
         <v>19394903</v>
@@ -7546,7 +7546,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F22" s="35">
         <v>11460784</v>
@@ -7560,7 +7560,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F23" s="35">
         <v>7121436</v>
@@ -7571,10 +7571,10 @@
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F24" s="35">
         <v>61834517</v>
@@ -7588,7 +7588,7 @@
         <v>44</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F25" s="35">
         <v>2765741</v>
@@ -7599,10 +7599,10 @@
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F26" s="35">
         <v>1057541</v>
@@ -7613,10 +7613,10 @@
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="28"/>
@@ -7640,21 +7640,21 @@
     <row r="30" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="150" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="151"/>
+      <c r="D30" s="152" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="151"/>
+      <c r="F30" s="153"/>
       <c r="G30" s="28"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" s="37">
         <v>2010</v>
@@ -7668,10 +7668,10 @@
         <v>6</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G32" s="28"/>
     </row>
@@ -7682,7 +7682,7 @@
         <v>34</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="28"/>
@@ -7694,7 +7694,7 @@
         <v>45</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F34" s="35" t="s">
         <v>37</v>
@@ -7705,10 +7705,10 @@
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="28"/>
@@ -7717,10 +7717,10 @@
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="E36" s="42" t="s">
         <v>424</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>425</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="28"/>
@@ -7732,7 +7732,7 @@
         <v>39</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="28"/>
@@ -7744,7 +7744,7 @@
         <v>51</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="28"/>
@@ -7756,7 +7756,7 @@
         <v>46</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F39" s="35" t="s">
         <v>37</v>
@@ -7770,7 +7770,7 @@
         <v>67</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="28"/>
@@ -7782,7 +7782,7 @@
         <v>52</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="28"/>
@@ -7794,7 +7794,7 @@
         <v>53</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F42" s="39"/>
       <c r="G42" s="28"/>
@@ -7806,7 +7806,7 @@
         <v>54</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="28"/>
@@ -7818,7 +7818,7 @@
         <v>55</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="28"/>
@@ -7830,7 +7830,7 @@
         <v>56</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F45" s="39"/>
       <c r="G45" s="28"/>
@@ -7842,7 +7842,7 @@
         <v>57</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F46" s="39"/>
       <c r="G46" s="28"/>
@@ -7854,7 +7854,7 @@
         <v>58</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="28"/>
@@ -7866,7 +7866,7 @@
         <v>59</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F48" s="39"/>
       <c r="G48" s="28"/>
@@ -7878,7 +7878,7 @@
         <v>60</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="28"/>
@@ -7890,7 +7890,7 @@
         <v>70</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F50" s="39"/>
       <c r="G50" s="28"/>
@@ -7902,7 +7902,7 @@
         <v>68</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F51" s="39"/>
       <c r="G51" s="28"/>
@@ -7914,7 +7914,7 @@
         <v>69</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F52" s="40"/>
       <c r="G52" s="28"/>
@@ -7945,7 +7945,7 @@
   </sheetPr>
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7958,7 +7958,7 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H1" s="108" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -7978,12 +7978,12 @@
     </row>
     <row r="6" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
-      <c r="C6" s="124" t="s">
-        <v>440</v>
-      </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
+      <c r="C6" s="129" t="s">
+        <v>439</v>
+      </c>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -8107,7 +8107,7 @@
         <v>78</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="12"/>
@@ -8122,7 +8122,7 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G16" s="12"/>
     </row>
@@ -8176,7 +8176,7 @@
   <sheetData>
     <row r="3" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="13"/>
     </row>
@@ -8190,20 +8190,20 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
-      <c r="C6" s="133" t="s">
-        <v>439</v>
-      </c>
-      <c r="D6" s="134"/>
+      <c r="C6" s="135" t="s">
+        <v>438</v>
+      </c>
+      <c r="D6" s="136"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -8211,7 +8211,7 @@
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="57"/>
       <c r="E8" s="12"/>
@@ -8220,7 +8220,7 @@
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>61</v>
@@ -8231,10 +8231,10 @@
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="61" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -8255,11 +8255,11 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
-      <c r="C13" s="135" t="s">
-        <v>446</v>
-      </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
+      <c r="C13" s="137" t="s">
+        <v>445</v>
+      </c>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -8268,17 +8268,17 @@
         <v>15</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
@@ -8287,13 +8287,13 @@
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="45" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F16" s="12"/>
     </row>
@@ -8306,7 +8306,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F17" s="12"/>
     </row>
@@ -8326,20 +8326,20 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
-      <c r="C20" s="137" t="s">
-        <v>447</v>
-      </c>
-      <c r="D20" s="137"/>
+      <c r="C20" s="139" t="s">
+        <v>446</v>
+      </c>
+      <c r="D20" s="139"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
       <c r="C21" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -8347,7 +8347,7 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
       <c r="C22" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="12"/>
@@ -8356,10 +8356,10 @@
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="12"/>
       <c r="C23" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -8367,10 +8367,10 @@
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="12"/>
       <c r="C24" s="104" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -8391,10 +8391,10 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="12"/>
-      <c r="C27" s="137" t="s">
-        <v>448</v>
-      </c>
-      <c r="D27" s="137"/>
+      <c r="C27" s="139" t="s">
+        <v>447</v>
+      </c>
+      <c r="D27" s="139"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
@@ -8404,7 +8404,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -8412,7 +8412,7 @@
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
       <c r="C29" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="57"/>
       <c r="E29" s="12"/>
@@ -8421,10 +8421,10 @@
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
       <c r="C30" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -8435,7 +8435,7 @@
         <v>2010</v>
       </c>
       <c r="D31" s="66" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -8456,10 +8456,10 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="12"/>
-      <c r="C34" s="137" t="s">
-        <v>449</v>
-      </c>
-      <c r="D34" s="137"/>
+      <c r="C34" s="139" t="s">
+        <v>448</v>
+      </c>
+      <c r="D34" s="139"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
@@ -8469,7 +8469,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -8477,7 +8477,7 @@
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="12"/>
       <c r="C36" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="57"/>
       <c r="E36" s="12"/>
@@ -8486,10 +8486,10 @@
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="12"/>
       <c r="C37" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -8500,7 +8500,7 @@
         <v>2010</v>
       </c>
       <c r="D38" s="66" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -8544,12 +8544,12 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H1" s="108" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
@@ -8566,10 +8566,10 @@
     <row r="6" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="139" t="s">
-        <v>504</v>
-      </c>
-      <c r="E6" s="140"/>
+      <c r="D6" s="141" t="s">
+        <v>503</v>
+      </c>
+      <c r="E6" s="142"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
@@ -8592,10 +8592,10 @@
     <row r="9" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="133" t="s">
-        <v>506</v>
-      </c>
-      <c r="E9" s="134"/>
+      <c r="D9" s="135" t="s">
+        <v>505</v>
+      </c>
+      <c r="E9" s="136"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
@@ -8603,10 +8603,10 @@
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="52" t="s">
         <v>119</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>120</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -8615,7 +8615,7 @@
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="53">
         <v>1</v>
@@ -8627,7 +8627,7 @@
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="53">
         <v>2</v>
@@ -8639,7 +8639,7 @@
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="53">
         <v>3</v>
@@ -8651,7 +8651,7 @@
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="54">
         <v>4</v>
@@ -8678,10 +8678,10 @@
     <row r="17" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="133" t="s">
-        <v>507</v>
-      </c>
-      <c r="E17" s="134"/>
+      <c r="D17" s="135" t="s">
+        <v>506</v>
+      </c>
+      <c r="E17" s="136"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
     </row>
@@ -8689,10 +8689,10 @@
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="52" t="s">
         <v>128</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>129</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -8701,7 +8701,7 @@
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="53">
         <v>1</v>
@@ -8713,7 +8713,7 @@
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="53">
         <v>2</v>
@@ -8725,7 +8725,7 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="53">
         <v>3</v>
@@ -8737,7 +8737,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" s="54">
         <v>4</v>
@@ -8764,10 +8764,10 @@
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="133" t="s">
-        <v>508</v>
-      </c>
-      <c r="E25" s="134"/>
+      <c r="D25" s="135" t="s">
+        <v>507</v>
+      </c>
+      <c r="E25" s="136"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
     </row>
@@ -8775,10 +8775,10 @@
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="52" t="s">
         <v>137</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>138</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -8787,7 +8787,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" s="53">
         <v>1</v>
@@ -8799,7 +8799,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28" s="53">
         <v>2</v>
@@ -8811,7 +8811,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="53">
         <v>3</v>
@@ -8823,7 +8823,7 @@
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="54">
         <v>4</v>
@@ -8849,27 +8849,27 @@
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B33" s="12"/>
-      <c r="C33" s="133" t="s">
-        <v>261</v>
-      </c>
-      <c r="D33" s="133"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
+      <c r="C33" s="135" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
       <c r="G33" s="12"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="12"/>
       <c r="C34" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E34" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F34" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G34" s="12"/>
     </row>
@@ -8877,10 +8877,10 @@
       <c r="B35" s="12"/>
       <c r="C35" s="57"/>
       <c r="D35" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E35" s="57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F35" s="57"/>
       <c r="G35" s="12"/>
@@ -8889,10 +8889,10 @@
       <c r="B36" s="12"/>
       <c r="C36" s="57"/>
       <c r="D36" s="56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E36" s="56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36" s="55"/>
       <c r="G36" s="12"/>
@@ -8900,16 +8900,16 @@
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="12"/>
       <c r="C37" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D37" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="52" t="s">
         <v>151</v>
-      </c>
-      <c r="F37" s="52" t="s">
-        <v>152</v>
       </c>
       <c r="G37" s="12"/>
     </row>
@@ -8918,11 +8918,11 @@
       <c r="C38" s="46">
         <v>1</v>
       </c>
-      <c r="D38" s="125" t="s">
+      <c r="D38" s="123" t="s">
         <v>28</v>
       </c>
       <c r="E38" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F38" s="62">
         <v>1</v>
@@ -8934,9 +8934,9 @@
       <c r="C39" s="46">
         <v>2</v>
       </c>
-      <c r="D39" s="125"/>
+      <c r="D39" s="123"/>
       <c r="E39" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F39" s="62">
         <v>2</v>
@@ -8948,9 +8948,9 @@
       <c r="C40" s="46">
         <v>3</v>
       </c>
-      <c r="D40" s="125"/>
+      <c r="D40" s="123"/>
       <c r="E40" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F40" s="62">
         <v>3</v>
@@ -8962,9 +8962,9 @@
       <c r="C41" s="60">
         <v>4</v>
       </c>
-      <c r="D41" s="138"/>
+      <c r="D41" s="140"/>
       <c r="E41" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F41" s="54">
         <v>4</v>
@@ -8976,11 +8976,11 @@
       <c r="C42" s="63">
         <v>5</v>
       </c>
-      <c r="D42" s="141" t="s">
-        <v>158</v>
+      <c r="D42" s="143" t="s">
+        <v>157</v>
       </c>
       <c r="E42" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F42" s="64">
         <v>1</v>
@@ -8992,9 +8992,9 @@
       <c r="C43" s="46">
         <v>6</v>
       </c>
-      <c r="D43" s="125"/>
+      <c r="D43" s="123"/>
       <c r="E43" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F43" s="62">
         <v>2</v>
@@ -9006,9 +9006,9 @@
       <c r="C44" s="46">
         <v>7</v>
       </c>
-      <c r="D44" s="125"/>
+      <c r="D44" s="123"/>
       <c r="E44" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F44" s="62">
         <v>3</v>
@@ -9020,9 +9020,9 @@
       <c r="C45" s="60">
         <v>8</v>
       </c>
-      <c r="D45" s="138"/>
+      <c r="D45" s="140"/>
       <c r="E45" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F45" s="54">
         <v>4</v>
@@ -9034,11 +9034,11 @@
       <c r="C46" s="63">
         <v>9</v>
       </c>
-      <c r="D46" s="141" t="s">
+      <c r="D46" s="143" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F46" s="64">
         <v>1</v>
@@ -9050,9 +9050,9 @@
       <c r="C47" s="46">
         <v>10</v>
       </c>
-      <c r="D47" s="125"/>
+      <c r="D47" s="123"/>
       <c r="E47" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F47" s="62">
         <v>2</v>
@@ -9064,9 +9064,9 @@
       <c r="C48" s="46">
         <v>11</v>
       </c>
-      <c r="D48" s="125"/>
+      <c r="D48" s="123"/>
       <c r="E48" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F48" s="62">
         <v>3</v>
@@ -9078,9 +9078,9 @@
       <c r="C49" s="60">
         <v>12</v>
       </c>
-      <c r="D49" s="138"/>
+      <c r="D49" s="140"/>
       <c r="E49" s="60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F49" s="54">
         <v>4</v>
@@ -9092,11 +9092,11 @@
       <c r="C50" s="46">
         <v>13</v>
       </c>
-      <c r="D50" s="125" t="s">
-        <v>163</v>
+      <c r="D50" s="123" t="s">
+        <v>162</v>
       </c>
       <c r="E50" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F50" s="53">
         <v>1</v>
@@ -9108,9 +9108,9 @@
       <c r="C51" s="46">
         <v>14</v>
       </c>
-      <c r="D51" s="125"/>
+      <c r="D51" s="123"/>
       <c r="E51" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F51" s="53">
         <v>2</v>
@@ -9122,9 +9122,9 @@
       <c r="C52" s="46">
         <v>15</v>
       </c>
-      <c r="D52" s="125"/>
+      <c r="D52" s="123"/>
       <c r="E52" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F52" s="53">
         <v>3</v>
@@ -9136,9 +9136,9 @@
       <c r="C53" s="60">
         <v>16</v>
       </c>
-      <c r="D53" s="138"/>
+      <c r="D53" s="140"/>
       <c r="E53" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F53" s="54">
         <v>4</v>
@@ -9150,9 +9150,9 @@
       <c r="C54" s="46">
         <v>13</v>
       </c>
-      <c r="D54" s="125"/>
+      <c r="D54" s="123"/>
       <c r="E54" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F54" s="53">
         <v>1</v>
@@ -9164,9 +9164,9 @@
       <c r="C55" s="46">
         <v>14</v>
       </c>
-      <c r="D55" s="125"/>
+      <c r="D55" s="123"/>
       <c r="E55" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F55" s="53">
         <v>2</v>
@@ -9178,9 +9178,9 @@
       <c r="C56" s="46">
         <v>15</v>
       </c>
-      <c r="D56" s="125"/>
+      <c r="D56" s="123"/>
       <c r="E56" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F56" s="53">
         <v>3</v>
@@ -9192,9 +9192,9 @@
       <c r="C57" s="60">
         <v>16</v>
       </c>
-      <c r="D57" s="138"/>
+      <c r="D57" s="140"/>
       <c r="E57" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F57" s="54">
         <v>4</v>
@@ -9220,10 +9220,10 @@
     <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="133" t="s">
-        <v>509</v>
-      </c>
-      <c r="E60" s="134"/>
+      <c r="D60" s="135" t="s">
+        <v>508</v>
+      </c>
+      <c r="E60" s="136"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
     </row>
@@ -9231,10 +9231,10 @@
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="52" t="s">
         <v>146</v>
-      </c>
-      <c r="E61" s="52" t="s">
-        <v>147</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
@@ -9243,7 +9243,7 @@
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E62" s="53">
         <v>1</v>
@@ -9255,7 +9255,7 @@
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E63" s="53">
         <v>2</v>
@@ -9267,7 +9267,7 @@
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="46" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E64" s="53">
         <v>3</v>
@@ -9279,7 +9279,7 @@
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E65" s="54">
         <v>4</v>
@@ -9306,10 +9306,10 @@
     <row r="68" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
-      <c r="D68" s="133" t="s">
-        <v>189</v>
-      </c>
-      <c r="E68" s="134"/>
+      <c r="D68" s="135" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" s="136"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
     </row>
@@ -9317,10 +9317,10 @@
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" s="52" t="s">
         <v>177</v>
-      </c>
-      <c r="E69" s="52" t="s">
-        <v>178</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
@@ -9329,10 +9329,10 @@
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E70" s="65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
@@ -9341,10 +9341,10 @@
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E71" s="65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -9353,10 +9353,10 @@
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E72" s="65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -9365,10 +9365,10 @@
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E73" s="65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -9377,10 +9377,10 @@
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E74" s="66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -9404,10 +9404,10 @@
     <row r="77" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
-      <c r="D77" s="133" t="s">
-        <v>510</v>
-      </c>
-      <c r="E77" s="134"/>
+      <c r="D77" s="135" t="s">
+        <v>509</v>
+      </c>
+      <c r="E77" s="136"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
     </row>
@@ -9415,10 +9415,10 @@
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E78" s="52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -9427,7 +9427,7 @@
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E79" s="53">
         <v>1</v>
@@ -9439,7 +9439,7 @@
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E80" s="53">
         <v>2</v>
@@ -9451,7 +9451,7 @@
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E81" s="53">
         <v>3</v>
@@ -9463,7 +9463,7 @@
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E82" s="54">
         <v>4</v>
@@ -9521,12 +9521,12 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K1" s="108" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="50"/>
@@ -9551,10 +9551,10 @@
     </row>
     <row r="6" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
-      <c r="C6" s="139" t="s">
-        <v>498</v>
-      </c>
-      <c r="D6" s="140"/>
+      <c r="C6" s="141" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6" s="142"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -9575,10 +9575,10 @@
     </row>
     <row r="8" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
-      <c r="C8" s="133" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" s="134"/>
+      <c r="C8" s="135" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="136"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -9592,7 +9592,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -9679,12 +9679,12 @@
     </row>
     <row r="16" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
-      <c r="C16" s="133" t="s">
-        <v>511</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
+      <c r="C16" s="135" t="s">
+        <v>510</v>
+      </c>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -9693,16 +9693,16 @@
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -9712,11 +9712,11 @@
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D18" s="46"/>
-      <c r="E18" s="125" t="s">
-        <v>244</v>
+      <c r="E18" s="123" t="s">
+        <v>243</v>
       </c>
       <c r="F18" s="144">
         <v>3</v>
@@ -9730,9 +9730,9 @@
       <c r="B19" s="12"/>
       <c r="C19" s="76"/>
       <c r="D19" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="E19" s="138"/>
+        <v>247</v>
+      </c>
+      <c r="E19" s="140"/>
       <c r="F19" s="144"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -9742,11 +9742,11 @@
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
       <c r="C20" s="77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D20" s="63"/>
-      <c r="E20" s="141" t="s">
-        <v>246</v>
+      <c r="E20" s="143" t="s">
+        <v>245</v>
       </c>
       <c r="F20" s="144"/>
       <c r="G20" s="12"/>
@@ -9758,9 +9758,9 @@
       <c r="B21" s="12"/>
       <c r="C21" s="76"/>
       <c r="D21" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="E21" s="138"/>
+        <v>248</v>
+      </c>
+      <c r="E21" s="140"/>
       <c r="F21" s="144"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -9770,11 +9770,11 @@
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
       <c r="C22" s="44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D22" s="46"/>
-      <c r="E22" s="125" t="s">
-        <v>247</v>
+      <c r="E22" s="123" t="s">
+        <v>246</v>
       </c>
       <c r="F22" s="144"/>
       <c r="G22" s="12"/>
@@ -9786,9 +9786,9 @@
       <c r="B23" s="12"/>
       <c r="C23" s="76"/>
       <c r="D23" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="E23" s="138"/>
+        <v>242</v>
+      </c>
+      <c r="E23" s="140"/>
       <c r="F23" s="145"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -9832,10 +9832,10 @@
     </row>
     <row r="27" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="12"/>
-      <c r="C27" s="133" t="s">
-        <v>258</v>
-      </c>
-      <c r="D27" s="134"/>
+      <c r="C27" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="136"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -9846,10 +9846,10 @@
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
       <c r="C28" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -9912,10 +9912,10 @@
     </row>
     <row r="33" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B33" s="12"/>
-      <c r="C33" s="133" t="s">
-        <v>255</v>
-      </c>
-      <c r="D33" s="134"/>
+      <c r="C33" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="136"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -9926,10 +9926,10 @@
     <row r="34" spans="2:10" ht="27.75" x14ac:dyDescent="0.3">
       <c r="B34" s="12"/>
       <c r="C34" s="83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -9956,7 +9956,7 @@
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="12"/>
       <c r="C36" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="84">
         <v>2</v>
@@ -10007,59 +10007,59 @@
     </row>
     <row r="40" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B40" s="12"/>
-      <c r="C40" s="133" t="s">
-        <v>302</v>
-      </c>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
+      <c r="C40" s="135" t="s">
+        <v>301</v>
+      </c>
+      <c r="D40" s="135"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="135"/>
       <c r="J40" s="12"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="12"/>
       <c r="C41" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="D41" s="78" t="s">
+      <c r="E41" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="E41" s="78" t="s">
+      <c r="F41" s="147" t="s">
         <v>264</v>
       </c>
-      <c r="F41" s="142" t="s">
-        <v>265</v>
-      </c>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="142"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
       <c r="J41" s="12"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="12"/>
       <c r="C42" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="E42" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="F42" s="148" t="s">
         <v>273</v>
       </c>
-      <c r="D42" s="78" t="s">
-        <v>263</v>
-      </c>
-      <c r="E42" s="86" t="s">
-        <v>264</v>
-      </c>
-      <c r="F42" s="143" t="s">
-        <v>274</v>
-      </c>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="12"/>
       <c r="C43" s="78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D43" s="87"/>
       <c r="E43" s="86"/>
@@ -10070,7 +10070,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="95" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I43" s="92">
         <v>1</v>
@@ -10080,10 +10080,10 @@
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="12"/>
       <c r="C44" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" s="86" t="s">
         <v>268</v>
-      </c>
-      <c r="D44" s="86" t="s">
-        <v>269</v>
       </c>
       <c r="E44" s="86"/>
       <c r="F44" s="93">
@@ -10103,7 +10103,7 @@
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="12"/>
       <c r="C45" s="78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D45" s="87"/>
       <c r="E45" s="46"/>
@@ -10124,10 +10124,10 @@
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="12"/>
       <c r="C46" s="60" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D46" s="86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E46" s="46">
         <v>1</v>
@@ -10143,10 +10143,10 @@
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="12"/>
       <c r="C47" s="88" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D47" s="86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E47" s="46">
         <v>1</v>
@@ -10165,7 +10165,7 @@
         <v>39</v>
       </c>
       <c r="D48" s="89" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E48" s="46">
         <v>1</v>
@@ -10202,10 +10202,10 @@
     </row>
     <row r="51" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B51" s="12"/>
-      <c r="C51" s="133" t="s">
-        <v>277</v>
-      </c>
-      <c r="D51" s="134"/>
+      <c r="C51" s="135" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" s="136"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
@@ -10216,10 +10216,10 @@
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="12"/>
       <c r="C52" s="83" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -10234,7 +10234,7 @@
         <v>18</v>
       </c>
       <c r="D53" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -10271,6 +10271,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C40:I40"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F18:F23"/>
@@ -10280,11 +10285,6 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C40:I40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K1" location="'Rating Algorithm'!A48" display="'Rating Algorithm'!A48"/>
@@ -10300,7 +10300,9 @@
   </sheetPr>
   <dimension ref="B3:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10311,7 +10313,7 @@
   <sheetData>
     <row r="3" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" s="13"/>
     </row>
@@ -10326,12 +10328,12 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
-      <c r="C6" s="137" t="s">
-        <v>451</v>
-      </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
+      <c r="C6" s="139" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -10340,29 +10342,29 @@
         <v>21</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="F8" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="G8" s="12"/>
     </row>
@@ -10372,7 +10374,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E9" s="85">
         <v>50000</v>
@@ -10388,7 +10390,7 @@
         <v>100</v>
       </c>
       <c r="D10" s="85" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" s="85">
         <v>60000</v>
@@ -10404,7 +10406,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E11" s="85">
         <v>50</v>
@@ -10464,10 +10466,10 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
-      <c r="C16" s="137" t="s">
-        <v>450</v>
-      </c>
-      <c r="D16" s="137"/>
+      <c r="C16" s="139" t="s">
+        <v>449</v>
+      </c>
+      <c r="D16" s="139"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -10478,7 +10480,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -10487,7 +10489,7 @@
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="12"/>
@@ -10497,10 +10499,10 @@
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -10554,12 +10556,12 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
       <c r="O1" s="108" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" s="49"/>
     </row>
@@ -10581,10 +10583,10 @@
     </row>
     <row r="6" spans="2:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
-      <c r="C6" s="139" t="s">
-        <v>499</v>
-      </c>
-      <c r="D6" s="140"/>
+      <c r="C6" s="141" t="s">
+        <v>498</v>
+      </c>
+      <c r="D6" s="142"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -10613,10 +10615,10 @@
     </row>
     <row r="8" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
-      <c r="C8" s="133" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" s="134"/>
+      <c r="C8" s="135" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="136"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -10631,10 +10633,10 @@
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" s="52" t="s">
         <v>318</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>319</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -10717,10 +10719,10 @@
     </row>
     <row r="14" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
-      <c r="C14" s="133" t="s">
-        <v>322</v>
-      </c>
-      <c r="D14" s="134"/>
+      <c r="C14" s="135" t="s">
+        <v>321</v>
+      </c>
+      <c r="D14" s="136"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -10735,10 +10737,10 @@
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="83" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="52" t="s">
         <v>320</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>321</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -10773,7 +10775,7 @@
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="84">
         <v>2</v>
@@ -10840,10 +10842,10 @@
     </row>
     <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
-      <c r="C21" s="133" t="s">
-        <v>323</v>
-      </c>
-      <c r="D21" s="134"/>
+      <c r="C21" s="135" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="136"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -10858,10 +10860,10 @@
     <row r="22" spans="2:14" ht="27.75" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
       <c r="C22" s="83" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -10877,7 +10879,7 @@
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12"/>
       <c r="C23" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="84">
         <v>1</v>
@@ -10963,94 +10965,94 @@
     </row>
     <row r="28" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
-      <c r="C28" s="133" t="s">
-        <v>327</v>
-      </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="133"/>
+      <c r="C28" s="135" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
       <c r="N28" s="12"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
       <c r="C29" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="E29" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="F29" s="147" t="s">
         <v>264</v>
       </c>
-      <c r="F29" s="142" t="s">
-        <v>265</v>
-      </c>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="142"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="147"/>
       <c r="N29" s="12"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
       <c r="C30" s="83" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="E30" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" s="148" t="s">
         <v>328</v>
       </c>
-      <c r="D30" s="78" t="s">
-        <v>263</v>
-      </c>
-      <c r="E30" s="86" t="s">
-        <v>264</v>
-      </c>
-      <c r="F30" s="143" t="s">
-        <v>329</v>
-      </c>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="143"/>
-      <c r="L30" s="143"/>
-      <c r="M30" s="143"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
       <c r="N30" s="12"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
       <c r="C31" s="78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D31" s="87"/>
       <c r="E31" s="86"/>
       <c r="F31" s="100" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G31" s="101">
         <v>4</v>
       </c>
       <c r="H31" s="95" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I31" s="92">
         <v>3</v>
       </c>
       <c r="J31" s="102" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K31" s="92">
         <v>2</v>
       </c>
       <c r="L31" s="102" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M31" s="92">
         <v>1</v>
@@ -11060,10 +11062,10 @@
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
       <c r="C32" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="86" t="s">
         <v>268</v>
-      </c>
-      <c r="D32" s="86" t="s">
-        <v>269</v>
       </c>
       <c r="E32" s="86"/>
       <c r="F32" s="93">
@@ -11095,7 +11097,7 @@
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="12"/>
       <c r="C33" s="78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D33" s="87"/>
       <c r="E33" s="46"/>
@@ -11131,7 +11133,7 @@
         <v>52</v>
       </c>
       <c r="D34" s="86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E34" s="46">
         <v>1</v>
@@ -11154,7 +11156,7 @@
         <v>53</v>
       </c>
       <c r="D35" s="86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E35" s="46">
         <v>1</v>
@@ -11177,7 +11179,7 @@
         <v>54</v>
       </c>
       <c r="D36" s="86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E36" s="46">
         <v>1</v>
@@ -11200,7 +11202,7 @@
         <v>55</v>
       </c>
       <c r="D37" s="86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E37" s="46">
         <v>1</v>
@@ -11223,7 +11225,7 @@
         <v>56</v>
       </c>
       <c r="D38" s="86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E38" s="46">
         <v>1</v>
@@ -11246,7 +11248,7 @@
         <v>57</v>
       </c>
       <c r="D39" s="86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E39" s="46">
         <v>1</v>
@@ -11269,7 +11271,7 @@
         <v>58</v>
       </c>
       <c r="D40" s="89" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E40" s="46">
         <v>1</v>
@@ -11318,11 +11320,11 @@
     </row>
     <row r="43" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B43" s="12"/>
-      <c r="C43" s="133" t="s">
-        <v>334</v>
-      </c>
-      <c r="D43" s="133"/>
-      <c r="E43" s="133"/>
+      <c r="C43" s="135" t="s">
+        <v>333</v>
+      </c>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -11336,13 +11338,13 @@
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12"/>
       <c r="C44" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="D44" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="D44" s="51" t="s">
-        <v>336</v>
-      </c>
       <c r="E44" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -11361,7 +11363,7 @@
       </c>
       <c r="D45" s="46"/>
       <c r="E45" s="144" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -11424,15 +11426,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="C28:M28"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="C28:M28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O1" location="'Rating Algorithm'!A66" display="'Rating Algorithm'!A66"/>
@@ -11449,7 +11451,7 @@
   <dimension ref="B3:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -11459,8 +11461,8 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="153" t="s">
-        <v>325</v>
+      <c r="B3" s="121" t="s">
+        <v>324</v>
       </c>
       <c r="C3" s="13"/>
     </row>
@@ -11473,36 +11475,36 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
-      <c r="C6" s="137" t="s">
-        <v>452</v>
-      </c>
-      <c r="D6" s="137"/>
+      <c r="C6" s="139" t="s">
+        <v>451</v>
+      </c>
+      <c r="D6" s="139"/>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="85" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="110">
         <v>1</v>
@@ -11543,10 +11545,10 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
-      <c r="C14" s="137" t="s">
-        <v>453</v>
-      </c>
-      <c r="D14" s="137"/>
+      <c r="C14" s="139" t="s">
+        <v>452</v>
+      </c>
+      <c r="D14" s="139"/>
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
@@ -11555,14 +11557,14 @@
         <v>4</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="12"/>
@@ -11570,10 +11572,10 @@
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E17" s="12"/>
     </row>
@@ -11619,12 +11621,12 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F1" s="108" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C3" s="49"/>
     </row>
@@ -11637,10 +11639,10 @@
     </row>
     <row r="6" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
-      <c r="C6" s="139" t="s">
-        <v>500</v>
-      </c>
-      <c r="D6" s="140"/>
+      <c r="C6" s="141" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6" s="142"/>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -11651,19 +11653,19 @@
     </row>
     <row r="8" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
-      <c r="C8" s="133" t="s">
-        <v>356</v>
-      </c>
-      <c r="D8" s="134"/>
+      <c r="C8" s="135" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="136"/>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="52" t="s">
         <v>357</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>358</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -11701,19 +11703,19 @@
     </row>
     <row r="14" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
-      <c r="C14" s="133" t="s">
-        <v>359</v>
-      </c>
-      <c r="D14" s="134"/>
+      <c r="C14" s="135" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="136"/>
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15" s="52" t="s">
         <v>360</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>361</v>
       </c>
       <c r="E15" s="12"/>
     </row>
@@ -11751,19 +11753,19 @@
     </row>
     <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
-      <c r="C20" s="133" t="s">
-        <v>362</v>
-      </c>
-      <c r="D20" s="134"/>
+      <c r="C20" s="135" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="136"/>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
       <c r="C21" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="D21" s="52" t="s">
         <v>363</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>364</v>
       </c>
       <c r="E21" s="12"/>
     </row>
@@ -11827,12 +11829,12 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I1" s="108" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C3" s="49"/>
     </row>
@@ -11847,12 +11849,12 @@
     </row>
     <row r="6" spans="2:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="12"/>
-      <c r="D6" s="139" t="s">
-        <v>501</v>
-      </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
+      <c r="D6" s="141" t="s">
+        <v>500</v>
+      </c>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -11865,10 +11867,10 @@
     </row>
     <row r="8" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C8" s="12"/>
-      <c r="D8" s="133" t="s">
-        <v>512</v>
-      </c>
-      <c r="E8" s="134"/>
+      <c r="D8" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="E8" s="136"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -11876,10 +11878,10 @@
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C9" s="12"/>
       <c r="D9" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="52" t="s">
         <v>305</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>306</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -11888,10 +11890,10 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C10" s="12"/>
       <c r="D10" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -11900,10 +11902,10 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C11" s="12"/>
       <c r="D11" s="46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -11912,10 +11914,10 @@
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C12" s="12"/>
       <c r="D12" s="61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E12" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -11939,459 +11941,459 @@
     </row>
     <row r="15" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C15" s="12"/>
-      <c r="D15" s="133" t="s">
-        <v>454</v>
-      </c>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
+      <c r="D15" s="135" t="s">
+        <v>453</v>
+      </c>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C16" s="12"/>
       <c r="D16" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="12"/>
       <c r="D17" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="12"/>
       <c r="D18" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="F18" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="E18" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>308</v>
-      </c>
       <c r="G18" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="12"/>
       <c r="D19" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="12"/>
       <c r="D20" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="E20" s="46" t="s">
-        <v>308</v>
-      </c>
       <c r="F20" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G20" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="12"/>
       <c r="D21" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="E21" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="E21" s="46" t="s">
-        <v>308</v>
-      </c>
       <c r="F21" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="12"/>
       <c r="D22" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="E22" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="E22" s="46" t="s">
-        <v>308</v>
-      </c>
       <c r="F22" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G22" s="65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="12"/>
       <c r="D23" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G23" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="12"/>
       <c r="D24" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="E24" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>308</v>
-      </c>
       <c r="G24" s="65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="12"/>
       <c r="D25" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="G25" s="65" t="s">
         <v>307</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F25" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="G25" s="65" t="s">
-        <v>308</v>
       </c>
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="12"/>
       <c r="D26" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G26" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="12"/>
       <c r="D27" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E27" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="F27" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="F27" s="46" t="s">
-        <v>308</v>
-      </c>
       <c r="G27" s="65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="12"/>
       <c r="D28" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E28" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" s="65" t="s">
         <v>307</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="G28" s="65" t="s">
-        <v>308</v>
       </c>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C29" s="12"/>
       <c r="D29" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F29" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="G29" s="65" t="s">
         <v>307</v>
-      </c>
-      <c r="G29" s="65" t="s">
-        <v>308</v>
       </c>
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C30" s="12"/>
       <c r="D30" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C31" s="12"/>
       <c r="D31" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E31" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C32" s="12"/>
       <c r="D32" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F32" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="G32" s="65" t="s">
         <v>307</v>
-      </c>
-      <c r="G32" s="65" t="s">
-        <v>308</v>
       </c>
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C33" s="12"/>
       <c r="D33" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E33" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G33" s="65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C34" s="12"/>
       <c r="D34" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E34" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G34" s="65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C35" s="12"/>
       <c r="D35" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E35" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" s="65" t="s">
         <v>307</v>
-      </c>
-      <c r="F35" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="G35" s="65" t="s">
-        <v>308</v>
       </c>
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C36" s="12"/>
       <c r="D36" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E36" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="F36" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="F36" s="46" t="s">
-        <v>308</v>
-      </c>
       <c r="G36" s="65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C37" s="12"/>
       <c r="D37" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G37" s="65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H37" s="12"/>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C38" s="12"/>
       <c r="D38" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E38" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F38" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="G38" s="65" t="s">
         <v>307</v>
-      </c>
-      <c r="G38" s="65" t="s">
-        <v>308</v>
       </c>
       <c r="H38" s="12"/>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C39" s="12"/>
       <c r="D39" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G39" s="65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C40" s="12"/>
       <c r="D40" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G40" s="65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H40" s="12"/>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C41" s="12"/>
       <c r="D41" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G41" s="65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C42" s="12"/>
       <c r="D42" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G42" s="65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C43" s="12"/>
       <c r="D43" s="61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E43" s="61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F43" s="61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G43" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H43" s="12"/>
     </row>
